--- a/biology/Médecine/Lymphœdème/Lymphœdème.xlsx
+++ b/biology/Médecine/Lymphœdème/Lymphœdème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me</t>
+          <t>Lymphœdème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un lymphœdème est un gonflement d'une partie plus ou moins importante du corps à la suite d'une accumulation de liquide lymphatique dans les tissus conjonctifs. Il existe deux types de lymphœdèmes. Le lymphœdème primaire est une malformation du système lymphatique sous forme d'hypoplasie ou d'hyperplasie. Ce type de lymphœdème est cependant rare. Il peut se déclencher de manière spontanée ou à la suite d'un facteur déclenchant (traumatisme, infection, etc.). Le lymphœdème secondaire est une dégradation du système lymphatique, c'est-à-dire lorsqu'un système lymphatique auparavant normal est endommagé. Les causes peuvent être de nature chirurgicale, infectieuse, chimiothérapeutique, tumorale, iatrogène, etc. 
 Il ne doit pas être confondu avec un œdème résultant d'une insuffisance veineuse ou d'autres causes (allergie, choc anaphylactique).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me</t>
+          <t>Lymphœdème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il concerne souvent des membres (bras ou jambes), pieds, mains. Il peut se produire également dans d'autres parties du corps comme le cou, le dos, l'abdomen, les organes génitaux ou les seins.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me</t>
+          <t>Lymphœdème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les pays développés, une des causes les plus fréquentes de lymphœdème secondaire est le curage des ganglions axillaires dans le traitement chirurgical du cancer du sein. Le traitement d'un sarcome mixoïde du membre inférieur engendre la même conséquence notamment du fait de l'ablation de tout ou partie de l'élément du corps contenant la tumeur et du curage ganglionnaire, entraînant un dysfonctionnement du système lymphatique plus ou moins important selon le curage.
 Ce lymphœdème, appelé lymphœdème secondaire du membre supérieur ou inférieur, est dans les pays développés une complication sévère et invalidante du traitement chirurgical notamment du cancer du sein et du sarcome des tissus mous.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me</t>
+          <t>Lymphœdème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Stades</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois stades de lymphœdème : 
 Stade I : l'œdème est spontanément réversible.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lymph%C5%93d%C3%A8me</t>
+          <t>Lymphœdème</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,57 +632,175 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Épidémiologie
-La fréquence exacte du lymphœdème du membre supérieur après traitement du cancer du sein est difficile à estimer. La première cause est l'imprécision quant à la définition de ce lymphœdème. Le guide de pratique clinique pour la prise en charge et le traitement du cancer du sein[1] propose de mesurer la circonférence brachiale à quatre points : aux articulations métacarpiennes-phalangiennes, aux poignets, à 10 cm en aval et à 15 cm en amont des épicondyles latéraux (coude). Pour certains une différence de plus de 2 cm à l'un de ces quatre points de mesure peut justifier le traitement du lymphœdème. L'incidence serait ainsi comprise entre 7 % pour un traitement par tumorectomie sans radiothérapie à 44 % quand on associe mastectomie et radiothérapie[2].
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La fréquence exacte du lymphœdème du membre supérieur après traitement du cancer du sein est difficile à estimer. La première cause est l'imprécision quant à la définition de ce lymphœdème. Le guide de pratique clinique pour la prise en charge et le traitement du cancer du sein propose de mesurer la circonférence brachiale à quatre points : aux articulations métacarpiennes-phalangiennes, aux poignets, à 10 cm en aval et à 15 cm en amont des épicondyles latéraux (coude). Pour certains une différence de plus de 2 cm à l'un de ces quatre points de mesure peut justifier le traitement du lymphœdème. L'incidence serait ainsi comprise entre 7 % pour un traitement par tumorectomie sans radiothérapie à 44 % quand on associe mastectomie et radiothérapie.
 Les facteurs de risque connus de lymphœdème sont :
 un évidement axillaire étendu ;
 une irradiation du creux axillaire ;
 l'obésité ;
 la présence de nombreux ganglions envahis par le cancer ;
-l'ablation de ganglions à la suite d'un curage ganglionnaire.
-Complications
-La complication la plus fréquente du lymphœdème est l'érysipèle. Cependant, une tumeur, une métastase ou une récidive de cancer font partie des complications fréquentes des lymphœdèmes.
-Prévention
-Le lymphœdème est lié au traitement appliqué au creux axillaire dans la prise en charge du cancer du sein. L'irradiation du creux axillaire est désormais réservé à des formes graves de cancer du sein, en particulier quand le résultat du curage chirurgical fait craindre une rechute du cancer. De plus une nouvelle technique chirurgicale, le ganglion sentinelle permet d'explorer le creux axillaire sans réaliser de curage. Avec cette technique le risque de lymphœdème est très faible.
-Chez les patientes qui ont bénéficié d'une curage axillaire et a fortiori quand celui-ci est étendu, quand il rapporte un grand nombre de ganglions envahis ou quand il est complété par une irradiation du creux axillaire, des conseils stricts doivent être apportés[3]. Les grands principes de la prévention du lymphœdème  sont les suivants :
+l'ablation de ganglions à la suite d'un curage ganglionnaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lymphœdème</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lymph%C5%93d%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lymphœdème secondaire du membre supérieur</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La complication la plus fréquente du lymphœdème est l'érysipèle. Cependant, une tumeur, une métastase ou une récidive de cancer font partie des complications fréquentes des lymphœdèmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lymphœdème</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lymph%C5%93d%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lymphœdème secondaire du membre supérieur</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le lymphœdème est lié au traitement appliqué au creux axillaire dans la prise en charge du cancer du sein. L'irradiation du creux axillaire est désormais réservé à des formes graves de cancer du sein, en particulier quand le résultat du curage chirurgical fait craindre une rechute du cancer. De plus une nouvelle technique chirurgicale, le ganglion sentinelle permet d'explorer le creux axillaire sans réaliser de curage. Avec cette technique le risque de lymphœdème est très faible.
+Chez les patientes qui ont bénéficié d'une curage axillaire et a fortiori quand celui-ci est étendu, quand il rapporte un grand nombre de ganglions envahis ou quand il est complété par une irradiation du creux axillaire, des conseils stricts doivent être apportés. Les grands principes de la prévention du lymphœdème  sont les suivants :
 surveillance du bras : toute enflure, démangeaison, augmentation de température du bras doivent faire l'objet d'une prise en charge ;
 protection du bras, en évitant les infections, les traumatismes et changements brusques de température, en portant des gants protecteurs pour le jardinage ou le ménage, en refusant toute injection et toute mesure de pression artérielle sur le bras atteint ;
 le repos et la surélévation du bras dans ce cas, ainsi que le maintien d'un poids idéal sont des mesures utiles ;
 le port de vêtements et de bijoux serrés, les soutiens-gorge à armature sont déconseillés ;
-Les sports recommandés sont la natation, la marche, l'aérobic léger, le vélo, le yoga.
-Traitement curatif
-Dès l'apparition des premiers signes de lymphœdème, il est nécessaire de mettre en place un traitement pour éviter la chronicisation de celui-ci. Les traitements disponibles sont :
+Les sports recommandés sont la natation, la marche, l'aérobic léger, le vélo, le yoga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lymphœdème</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lymph%C5%93d%C3%A8me</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lymphœdème secondaire du membre supérieur</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Traitement curatif</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dès l'apparition des premiers signes de lymphœdème, il est nécessaire de mettre en place un traitement pour éviter la chronicisation de celui-ci. Les traitements disponibles sont :
 le drainage lymphatique manuel ;
 la pompe pneumatique de compression ;
 le vêtement de compression.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lymph%C5%93d%C3%A8me</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lymphœdème</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lymph%C5%93d%C3%A8me</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les illustrations suivantes sont pour le stade III (l'éléphantiasis), le plus grave et le plus lourdement handicapant (avec des nécroses importantes des tissus et diverses complications infectieuses opportunes).
 			Comparaison pied droit et gauche. (Gros lymphœdème).
